--- a/pair trading -- python/data/etf_pair_code.xlsx
+++ b/pair trading -- python/data/etf_pair_code.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6108" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6100" uniqueCount="977">
   <si>
     <t>symbol</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2962,17 +2962,6 @@
   </si>
   <si>
     <t>region</t>
-  </si>
-  <si>
-    <t>HKD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Curncy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -3015,83 +3004,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3122,7 +3042,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3377,13 +3297,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1064"/>
+  <dimension ref="A1:D1062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B752" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B210" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A755" sqref="A755:XFD755"/>
+      <selection pane="bottomRight" activeCell="J217" sqref="J217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6543,10 +6463,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>977</v>
+        <v>220</v>
       </c>
       <c r="B226" t="s">
-        <v>978</v>
+        <v>74</v>
       </c>
       <c r="C226" t="s">
         <v>235</v>
@@ -6557,7 +6477,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="B227" t="s">
         <v>74</v>
@@ -6571,10 +6491,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="B228" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -6585,7 +6505,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B229" t="s">
         <v>236</v>
@@ -6599,7 +6519,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B230" t="s">
         <v>236</v>
@@ -6613,10 +6533,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B231" t="s">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="C231" t="s">
         <v>235</v>
@@ -6627,10 +6547,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B232" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="C232" t="s">
         <v>235</v>
@@ -6641,7 +6561,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B233" t="s">
         <v>236</v>
@@ -6655,7 +6575,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B234" t="s">
         <v>236</v>
@@ -6669,7 +6589,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B235" t="s">
         <v>236</v>
@@ -6683,10 +6603,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B236" t="s">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="C236" t="s">
         <v>235</v>
@@ -6697,10 +6617,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B237" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="C237" t="s">
         <v>235</v>
@@ -6711,7 +6631,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B238" t="s">
         <v>236</v>
@@ -6725,7 +6645,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B239" t="s">
         <v>236</v>
@@ -6739,7 +6659,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B240" t="s">
         <v>236</v>
@@ -6753,10 +6673,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B241" t="s">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="C241" t="s">
         <v>235</v>
@@ -6767,24 +6687,24 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B242" t="s">
         <v>74</v>
       </c>
       <c r="C242" t="s">
-        <v>235</v>
+        <v>302</v>
       </c>
       <c r="D242" t="s">
-        <v>237</v>
+        <v>303</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B243" t="s">
-        <v>74</v>
+        <v>293</v>
       </c>
       <c r="C243" t="s">
         <v>302</v>
@@ -6795,10 +6715,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="B244" t="s">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="C244" t="s">
         <v>302</v>
@@ -6809,7 +6729,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="B245" t="s">
         <v>74</v>
@@ -6823,10 +6743,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B246" t="s">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="C246" t="s">
         <v>302</v>
@@ -6837,10 +6757,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B247" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="C247" t="s">
         <v>302</v>
@@ -6851,10 +6771,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B248" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="C248" t="s">
         <v>302</v>
@@ -6865,10 +6785,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B249" t="s">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="C249" t="s">
         <v>302</v>
@@ -6879,7 +6799,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="B250" t="s">
         <v>74</v>
@@ -6893,10 +6813,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="B251" t="s">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="C251" t="s">
         <v>302</v>
@@ -6907,10 +6827,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B252" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C252" t="s">
         <v>302</v>
@@ -6921,10 +6841,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B253" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C253" t="s">
         <v>302</v>
@@ -6935,7 +6855,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B254" t="s">
         <v>294</v>
@@ -6949,7 +6869,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B255" t="s">
         <v>294</v>
@@ -6963,10 +6883,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B256" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C256" t="s">
         <v>302</v>
@@ -6977,10 +6897,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B257" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C257" t="s">
         <v>302</v>
@@ -6991,10 +6911,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>251</v>
+        <v>6</v>
       </c>
       <c r="B258" t="s">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="C258" t="s">
         <v>302</v>
@@ -7005,7 +6925,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>6</v>
+        <v>252</v>
       </c>
       <c r="B259" t="s">
         <v>74</v>
@@ -7019,10 +6939,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B260" t="s">
-        <v>74</v>
+        <v>293</v>
       </c>
       <c r="C260" t="s">
         <v>302</v>
@@ -7033,10 +6953,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B261" t="s">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="C261" t="s">
         <v>302</v>
@@ -7047,10 +6967,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B262" t="s">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="C262" t="s">
         <v>302</v>
@@ -7061,10 +6981,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B263" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C263" t="s">
         <v>302</v>
@@ -7075,10 +6995,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="B264" t="s">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="C264" t="s">
         <v>302</v>
@@ -7089,10 +7009,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="B265" t="s">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="C265" t="s">
         <v>302</v>
@@ -7103,10 +7023,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B266" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C266" t="s">
         <v>302</v>
@@ -7117,10 +7037,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B267" t="s">
-        <v>297</v>
+        <v>74</v>
       </c>
       <c r="C267" t="s">
         <v>302</v>
@@ -7131,10 +7051,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B268" t="s">
-        <v>74</v>
+        <v>298</v>
       </c>
       <c r="C268" t="s">
         <v>302</v>
@@ -7145,10 +7065,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="C269" t="s">
         <v>302</v>
@@ -7159,7 +7079,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B270" t="s">
         <v>74</v>
@@ -7173,7 +7093,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="B271" t="s">
         <v>74</v>
@@ -7187,10 +7107,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
       <c r="B272" t="s">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="C272" t="s">
         <v>302</v>
@@ -7201,7 +7121,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B273" t="s">
         <v>294</v>
@@ -7215,10 +7135,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="B274" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="C274" t="s">
         <v>302</v>
@@ -7229,7 +7149,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="B275" t="s">
         <v>74</v>
@@ -7243,10 +7163,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B276" t="s">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="C276" t="s">
         <v>302</v>
@@ -7257,10 +7177,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B277" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C277" t="s">
         <v>302</v>
@@ -7271,10 +7191,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B278" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C278" t="s">
         <v>302</v>
@@ -7285,10 +7205,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B279" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C279" t="s">
         <v>302</v>
@@ -7299,10 +7219,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>267</v>
+        <v>199</v>
       </c>
       <c r="B280" t="s">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="C280" t="s">
         <v>302</v>
@@ -7313,10 +7233,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="B281" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="C281" t="s">
         <v>302</v>
@@ -7327,10 +7247,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c r="B282" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="C282" t="s">
         <v>302</v>
@@ -7341,10 +7261,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>169</v>
+        <v>269</v>
       </c>
       <c r="B283" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="C283" t="s">
         <v>302</v>
@@ -7355,10 +7275,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B284" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C284" t="s">
         <v>302</v>
@@ -7369,10 +7289,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="B285" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="C285" t="s">
         <v>302</v>
@@ -7383,10 +7303,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="B286" t="s">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="C286" t="s">
         <v>302</v>
@@ -7397,10 +7317,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B287" t="s">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="C287" t="s">
         <v>302</v>
@@ -7411,10 +7331,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B288" t="s">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="C288" t="s">
         <v>302</v>
@@ -7425,10 +7345,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>273</v>
+        <v>104</v>
       </c>
       <c r="B289" t="s">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="C289" t="s">
         <v>302</v>
@@ -7439,10 +7359,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>104</v>
+        <v>274</v>
       </c>
       <c r="B290" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="C290" t="s">
         <v>302</v>
@@ -7453,10 +7373,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>274</v>
+        <v>113</v>
       </c>
       <c r="B291" t="s">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="C291" t="s">
         <v>302</v>
@@ -7467,10 +7387,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="B292" t="s">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="C292" t="s">
         <v>302</v>
@@ -7481,10 +7401,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="B293" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="C293" t="s">
         <v>302</v>
@@ -7495,10 +7415,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="B294" t="s">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="C294" t="s">
         <v>302</v>
@@ -7509,10 +7429,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>276</v>
+        <v>147</v>
       </c>
       <c r="B295" t="s">
-        <v>297</v>
+        <v>74</v>
       </c>
       <c r="C295" t="s">
         <v>302</v>
@@ -7523,7 +7443,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="B296" t="s">
         <v>74</v>
@@ -7537,7 +7457,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B297" t="s">
         <v>74</v>
@@ -7551,10 +7471,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B298" t="s">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="C298" t="s">
         <v>302</v>
@@ -7565,10 +7485,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B299" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C299" t="s">
         <v>302</v>
@@ -7579,10 +7499,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B300" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C300" t="s">
         <v>302</v>
@@ -7593,10 +7513,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B301" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C301" t="s">
         <v>302</v>
@@ -7607,10 +7527,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B302" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C302" t="s">
         <v>302</v>
@@ -7621,10 +7541,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B303" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C303" t="s">
         <v>302</v>
@@ -7635,10 +7555,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>284</v>
+        <v>108</v>
       </c>
       <c r="B304" t="s">
-        <v>300</v>
+        <v>74</v>
       </c>
       <c r="C304" t="s">
         <v>302</v>
@@ -7649,10 +7569,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="B305" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="C305" t="s">
         <v>302</v>
@@ -7663,10 +7583,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="B306" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="C306" t="s">
         <v>302</v>
@@ -7677,10 +7597,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B307" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C307" t="s">
         <v>302</v>
@@ -7691,10 +7611,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B308" t="s">
-        <v>300</v>
+        <v>74</v>
       </c>
       <c r="C308" t="s">
         <v>302</v>
@@ -7705,10 +7625,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B309" t="s">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="C309" t="s">
         <v>302</v>
@@ -7719,10 +7639,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B310" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C310" t="s">
         <v>302</v>
@@ -7733,10 +7653,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B311" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C311" t="s">
         <v>302</v>
@@ -7747,10 +7667,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B312" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="C312" t="s">
         <v>302</v>
@@ -7761,7 +7681,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B313" t="s">
         <v>74</v>
@@ -7775,21 +7695,21 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
-        <v>292</v>
+        <v>50</v>
       </c>
       <c r="B314" t="s">
         <v>74</v>
       </c>
       <c r="C314" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="D314" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B315" t="s">
         <v>74</v>
@@ -7803,7 +7723,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B316" t="s">
         <v>74</v>
@@ -7817,7 +7737,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
-        <v>6</v>
+        <v>304</v>
       </c>
       <c r="B317" t="s">
         <v>74</v>
@@ -7831,7 +7751,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="B318" t="s">
         <v>74</v>
@@ -7845,7 +7765,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B319" t="s">
         <v>74</v>
@@ -7859,7 +7779,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B320" t="s">
         <v>74</v>
@@ -7873,7 +7793,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="B321" t="s">
         <v>74</v>
@@ -7887,7 +7807,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="B322" t="s">
         <v>74</v>
@@ -7901,7 +7821,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
-        <v>238</v>
+        <v>117</v>
       </c>
       <c r="B323" t="s">
         <v>74</v>
@@ -7915,7 +7835,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
-        <v>117</v>
+        <v>244</v>
       </c>
       <c r="B324" t="s">
         <v>74</v>
@@ -7929,7 +7849,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="B325" t="s">
         <v>74</v>
@@ -7943,7 +7863,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B326" t="s">
         <v>74</v>
@@ -7957,7 +7877,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B327" t="s">
         <v>74</v>
@@ -7971,7 +7891,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B328" t="s">
         <v>74</v>
@@ -7985,7 +7905,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
-        <v>308</v>
+        <v>110</v>
       </c>
       <c r="B329" t="s">
         <v>74</v>
@@ -7999,7 +7919,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
-        <v>110</v>
+        <v>309</v>
       </c>
       <c r="B330" t="s">
         <v>74</v>
@@ -8013,7 +7933,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B331" t="s">
         <v>74</v>
@@ -8027,7 +7947,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B332" t="s">
         <v>74</v>
@@ -8041,7 +7961,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
-        <v>311</v>
+        <v>132</v>
       </c>
       <c r="B333" t="s">
         <v>74</v>
@@ -8055,7 +7975,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="B334" t="s">
         <v>74</v>
@@ -8069,7 +7989,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B335" t="s">
         <v>74</v>
@@ -8083,7 +8003,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B336" t="s">
         <v>74</v>
@@ -8097,7 +8017,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B337" t="s">
         <v>74</v>
@@ -8111,7 +8031,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
-        <v>315</v>
+        <v>103</v>
       </c>
       <c r="B338" t="s">
         <v>74</v>
@@ -8125,7 +8045,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="B339" t="s">
         <v>74</v>
@@ -8139,7 +8059,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
-        <v>135</v>
+        <v>316</v>
       </c>
       <c r="B340" t="s">
         <v>74</v>
@@ -8153,7 +8073,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B341" t="s">
         <v>74</v>
@@ -8167,7 +8087,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B342" t="s">
         <v>74</v>
@@ -8181,7 +8101,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B343" t="s">
         <v>74</v>
@@ -8195,7 +8115,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
-        <v>319</v>
+        <v>154</v>
       </c>
       <c r="B344" t="s">
         <v>74</v>
@@ -8209,21 +8129,21 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
-        <v>154</v>
+        <v>322</v>
       </c>
       <c r="B345" t="s">
         <v>74</v>
       </c>
       <c r="C345" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D345" t="s">
-        <v>321</v>
+        <v>974</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
-        <v>322</v>
+        <v>30</v>
       </c>
       <c r="B346" t="s">
         <v>74</v>
@@ -8237,7 +8157,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B347" t="s">
         <v>74</v>
@@ -8251,7 +8171,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B348" t="s">
         <v>74</v>
@@ -8265,7 +8185,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B349" t="s">
         <v>74</v>
@@ -8279,7 +8199,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B350" t="s">
         <v>74</v>
@@ -8293,7 +8213,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B351" t="s">
         <v>74</v>
@@ -8307,7 +8227,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B352" t="s">
         <v>74</v>
@@ -8321,7 +8241,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="B353" t="s">
         <v>74</v>
@@ -8335,7 +8255,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="B354" t="s">
         <v>74</v>
@@ -8349,7 +8269,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="B355" t="s">
         <v>74</v>
@@ -8363,10 +8283,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B356" t="s">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="C356" t="s">
         <v>330</v>
@@ -8377,10 +8297,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B357" t="s">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="C357" t="s">
         <v>330</v>
@@ -8391,7 +8311,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
-        <v>326</v>
+        <v>47</v>
       </c>
       <c r="B358" t="s">
         <v>74</v>
@@ -8405,7 +8325,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B359" t="s">
         <v>74</v>
@@ -8419,7 +8339,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B360" t="s">
         <v>74</v>
@@ -8433,7 +8353,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="B361" t="s">
         <v>74</v>
@@ -8447,7 +8367,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B362" t="s">
         <v>74</v>
@@ -8461,7 +8381,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="B363" t="s">
         <v>74</v>
@@ -8475,7 +8395,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B364" t="s">
         <v>74</v>
@@ -8489,7 +8409,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B365" t="s">
         <v>74</v>
@@ -8503,7 +8423,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B366" t="s">
         <v>74</v>
@@ -8517,7 +8437,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="B367" t="s">
         <v>74</v>
@@ -8531,7 +8451,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B368" t="s">
         <v>74</v>
@@ -8545,7 +8465,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
-        <v>328</v>
+        <v>23</v>
       </c>
       <c r="B369" t="s">
         <v>74</v>
@@ -8559,7 +8479,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
-        <v>23</v>
+        <v>329</v>
       </c>
       <c r="B370" t="s">
         <v>74</v>
@@ -8573,7 +8493,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
-        <v>329</v>
+        <v>14</v>
       </c>
       <c r="B371" t="s">
         <v>74</v>
@@ -8587,7 +8507,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="B372" t="s">
         <v>74</v>
@@ -8601,7 +8521,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
       <c r="B373" t="s">
         <v>74</v>
@@ -8615,21 +8535,21 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
-        <v>254</v>
+        <v>10</v>
       </c>
       <c r="B374" t="s">
         <v>74</v>
       </c>
       <c r="C374" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="D374" t="s">
-        <v>974</v>
+        <v>372</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
-        <v>10</v>
+        <v>332</v>
       </c>
       <c r="B375" t="s">
         <v>74</v>
@@ -8643,7 +8563,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B376" t="s">
         <v>74</v>
@@ -8657,7 +8577,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
-        <v>333</v>
+        <v>52</v>
       </c>
       <c r="B377" t="s">
         <v>74</v>
@@ -8671,7 +8591,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B378" t="s">
         <v>74</v>
@@ -8685,7 +8605,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="B379" t="s">
         <v>74</v>
@@ -8699,10 +8619,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="B380" t="s">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="C380" t="s">
         <v>371</v>
@@ -8713,10 +8633,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B381" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="C381" t="s">
         <v>371</v>
@@ -8727,7 +8647,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
-        <v>328</v>
+        <v>61</v>
       </c>
       <c r="B382" t="s">
         <v>74</v>
@@ -8741,7 +8661,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
-        <v>61</v>
+        <v>335</v>
       </c>
       <c r="B383" t="s">
         <v>74</v>
@@ -8755,7 +8675,7 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B384" t="s">
         <v>74</v>
@@ -8769,7 +8689,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B385" t="s">
         <v>74</v>
@@ -8783,7 +8703,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
-        <v>337</v>
+        <v>66</v>
       </c>
       <c r="B386" t="s">
         <v>74</v>
@@ -8797,7 +8717,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
-        <v>66</v>
+        <v>338</v>
       </c>
       <c r="B387" t="s">
         <v>74</v>
@@ -8811,7 +8731,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B388" t="s">
         <v>74</v>
@@ -8825,7 +8745,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B389" t="s">
         <v>74</v>
@@ -8839,7 +8759,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B390" t="s">
         <v>74</v>
@@ -8853,7 +8773,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B391" t="s">
         <v>74</v>
@@ -8867,7 +8787,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A392" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B392" t="s">
         <v>74</v>
@@ -8881,10 +8801,10 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A393" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B393" t="s">
-        <v>74</v>
+        <v>299</v>
       </c>
       <c r="C393" t="s">
         <v>371</v>
@@ -8895,10 +8815,10 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A394" t="s">
-        <v>344</v>
+        <v>146</v>
       </c>
       <c r="B394" t="s">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="C394" t="s">
         <v>371</v>
@@ -8909,10 +8829,10 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
-        <v>146</v>
+        <v>345</v>
       </c>
       <c r="B395" t="s">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="C395" t="s">
         <v>371</v>
@@ -8923,10 +8843,10 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
-        <v>345</v>
+        <v>43</v>
       </c>
       <c r="B396" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="C396" t="s">
         <v>371</v>
@@ -8937,7 +8857,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
-        <v>43</v>
+        <v>346</v>
       </c>
       <c r="B397" t="s">
         <v>74</v>
@@ -8951,7 +8871,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A398" t="s">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="B398" t="s">
         <v>74</v>
@@ -8965,7 +8885,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
-        <v>98</v>
+        <v>319</v>
       </c>
       <c r="B399" t="s">
         <v>74</v>
@@ -8979,7 +8899,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B400" t="s">
         <v>74</v>
@@ -8993,10 +8913,10 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="B401" t="s">
-        <v>74</v>
+        <v>370</v>
       </c>
       <c r="C401" t="s">
         <v>371</v>
@@ -9007,10 +8927,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A402" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B402" t="s">
-        <v>370</v>
+        <v>74</v>
       </c>
       <c r="C402" t="s">
         <v>371</v>
@@ -9021,7 +8941,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A403" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B403" t="s">
         <v>74</v>
@@ -9035,7 +8955,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A404" t="s">
-        <v>349</v>
+        <v>64</v>
       </c>
       <c r="B404" t="s">
         <v>74</v>
@@ -9049,10 +8969,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A405" t="s">
-        <v>64</v>
+        <v>350</v>
       </c>
       <c r="B405" t="s">
-        <v>74</v>
+        <v>299</v>
       </c>
       <c r="C405" t="s">
         <v>371</v>
@@ -9063,10 +8983,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A406" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B406" t="s">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="C406" t="s">
         <v>371</v>
@@ -9077,7 +8997,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A407" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B407" t="s">
         <v>74</v>
@@ -9091,7 +9011,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A408" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B408" t="s">
         <v>74</v>
@@ -9105,7 +9025,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A409" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B409" t="s">
         <v>74</v>
@@ -9119,7 +9039,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B410" t="s">
         <v>74</v>
@@ -9133,7 +9053,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B411" t="s">
         <v>74</v>
@@ -9147,7 +9067,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A412" t="s">
-        <v>356</v>
+        <v>123</v>
       </c>
       <c r="B412" t="s">
         <v>74</v>
@@ -9161,10 +9081,10 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A413" t="s">
-        <v>123</v>
+        <v>357</v>
       </c>
       <c r="B413" t="s">
-        <v>74</v>
+        <v>299</v>
       </c>
       <c r="C413" t="s">
         <v>371</v>
@@ -9175,7 +9095,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A414" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B414" t="s">
         <v>299</v>
@@ -9189,10 +9109,10 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B415" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C415" t="s">
         <v>371</v>
@@ -9203,10 +9123,10 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A416" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B416" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="C416" t="s">
         <v>371</v>
@@ -9217,7 +9137,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A417" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B417" t="s">
         <v>74</v>
@@ -9231,7 +9151,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A418" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B418" t="s">
         <v>74</v>
@@ -9245,7 +9165,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A419" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B419" t="s">
         <v>74</v>
@@ -9259,7 +9179,7 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A420" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B420" t="s">
         <v>74</v>
@@ -9273,10 +9193,10 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A421" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B421" t="s">
-        <v>74</v>
+        <v>293</v>
       </c>
       <c r="C421" t="s">
         <v>371</v>
@@ -9287,10 +9207,10 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A422" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B422" t="s">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="C422" t="s">
         <v>371</v>
@@ -9301,7 +9221,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A423" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B423" t="s">
         <v>74</v>
@@ -9315,10 +9235,10 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A424" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B424" t="s">
-        <v>74</v>
+        <v>299</v>
       </c>
       <c r="C424" t="s">
         <v>371</v>
@@ -9329,10 +9249,10 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A425" t="s">
-        <v>368</v>
+        <v>287</v>
       </c>
       <c r="B425" t="s">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="C425" t="s">
         <v>371</v>
@@ -9343,10 +9263,10 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A426" t="s">
-        <v>287</v>
+        <v>369</v>
       </c>
       <c r="B426" t="s">
-        <v>74</v>
+        <v>301</v>
       </c>
       <c r="C426" t="s">
         <v>371</v>
@@ -9357,21 +9277,21 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A427" t="s">
-        <v>369</v>
+        <v>13</v>
       </c>
       <c r="B427" t="s">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="C427" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D427" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A428" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B428" t="s">
         <v>74</v>
@@ -9385,7 +9305,7 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A429" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B429" t="s">
         <v>74</v>
@@ -9399,7 +9319,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A430" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B430" t="s">
         <v>74</v>
@@ -9413,7 +9333,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A431" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B431" t="s">
         <v>74</v>
@@ -9427,7 +9347,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A432" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B432" t="s">
         <v>74</v>
@@ -9441,7 +9361,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A433" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B433" t="s">
         <v>74</v>
@@ -9455,7 +9375,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A434" t="s">
-        <v>28</v>
+        <v>373</v>
       </c>
       <c r="B434" t="s">
         <v>74</v>
@@ -9469,7 +9389,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A435" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B435" t="s">
         <v>74</v>
@@ -9483,7 +9403,7 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A436" t="s">
-        <v>374</v>
+        <v>42</v>
       </c>
       <c r="B436" t="s">
         <v>74</v>
@@ -9497,7 +9417,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A437" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B437" t="s">
         <v>74</v>
@@ -9511,7 +9431,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A438" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B438" t="s">
         <v>74</v>
@@ -9525,7 +9445,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A439" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B439" t="s">
         <v>74</v>
@@ -9539,7 +9459,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A440" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B440" t="s">
         <v>74</v>
@@ -9553,7 +9473,7 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A441" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B441" t="s">
         <v>74</v>
@@ -9567,7 +9487,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A442" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B442" t="s">
         <v>74</v>
@@ -9581,7 +9501,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A443" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B443" t="s">
         <v>74</v>
@@ -9595,7 +9515,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A444" t="s">
-        <v>55</v>
+        <v>375</v>
       </c>
       <c r="B444" t="s">
         <v>74</v>
@@ -9609,7 +9529,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A445" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B445" t="s">
         <v>74</v>
@@ -9623,7 +9543,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A446" t="s">
-        <v>376</v>
+        <v>69</v>
       </c>
       <c r="B446" t="s">
         <v>74</v>
@@ -9637,7 +9557,7 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A447" t="s">
-        <v>69</v>
+        <v>377</v>
       </c>
       <c r="B447" t="s">
         <v>74</v>
@@ -9651,7 +9571,7 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A448" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B448" t="s">
         <v>74</v>
@@ -9665,7 +9585,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A449" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B449" t="s">
         <v>74</v>
@@ -9679,7 +9599,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A450" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B450" t="s">
         <v>74</v>
@@ -9693,7 +9613,7 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A451" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B451" t="s">
         <v>74</v>
@@ -9707,7 +9627,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A452" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B452" t="s">
         <v>74</v>
@@ -9721,7 +9641,7 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A453" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B453" t="s">
         <v>74</v>
@@ -9735,7 +9655,7 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A454" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B454" t="s">
         <v>74</v>
@@ -9749,7 +9669,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A455" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B455" t="s">
         <v>74</v>
@@ -9763,7 +9683,7 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A456" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B456" t="s">
         <v>74</v>
@@ -9777,21 +9697,21 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A457" t="s">
-        <v>386</v>
+        <v>9</v>
       </c>
       <c r="B457" t="s">
         <v>74</v>
       </c>
       <c r="C457" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D457" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A458" t="s">
-        <v>9</v>
+        <v>373</v>
       </c>
       <c r="B458" t="s">
         <v>74</v>
@@ -9805,7 +9725,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A459" t="s">
-        <v>373</v>
+        <v>13</v>
       </c>
       <c r="B459" t="s">
         <v>74</v>
@@ -9819,7 +9739,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A460" t="s">
-        <v>13</v>
+        <v>375</v>
       </c>
       <c r="B460" t="s">
         <v>74</v>
@@ -9833,7 +9753,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A461" t="s">
-        <v>375</v>
+        <v>19</v>
       </c>
       <c r="B461" t="s">
         <v>74</v>
@@ -9847,7 +9767,7 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A462" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B462" t="s">
         <v>74</v>
@@ -9861,7 +9781,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A463" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B463" t="s">
         <v>74</v>
@@ -9875,7 +9795,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A464" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B464" t="s">
         <v>74</v>
@@ -9889,7 +9809,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A465" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B465" t="s">
         <v>74</v>
@@ -9903,7 +9823,7 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A466" t="s">
-        <v>29</v>
+        <v>374</v>
       </c>
       <c r="B466" t="s">
         <v>74</v>
@@ -9917,7 +9837,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A467" t="s">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="B467" t="s">
         <v>74</v>
@@ -9931,7 +9851,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A468" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B468" t="s">
         <v>74</v>
@@ -9945,7 +9865,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A469" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B469" t="s">
         <v>74</v>
@@ -9959,7 +9879,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A470" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B470" t="s">
         <v>74</v>
@@ -9973,7 +9893,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A471" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B471" t="s">
         <v>74</v>
@@ -9987,7 +9907,7 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A472" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B472" t="s">
         <v>74</v>
@@ -10001,7 +9921,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A473" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B473" t="s">
         <v>74</v>
@@ -10015,7 +9935,7 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A474" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B474" t="s">
         <v>74</v>
@@ -10029,7 +9949,7 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A475" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B475" t="s">
         <v>74</v>
@@ -10043,7 +9963,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A476" t="s">
-        <v>57</v>
+        <v>389</v>
       </c>
       <c r="B476" t="s">
         <v>74</v>
@@ -10057,7 +9977,7 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A477" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B477" t="s">
         <v>74</v>
@@ -10071,7 +9991,7 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A478" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B478" t="s">
         <v>74</v>
@@ -10085,7 +10005,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A479" t="s">
-        <v>377</v>
+        <v>69</v>
       </c>
       <c r="B479" t="s">
         <v>74</v>
@@ -10099,7 +10019,7 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A480" t="s">
-        <v>69</v>
+        <v>379</v>
       </c>
       <c r="B480" t="s">
         <v>74</v>
@@ -10113,7 +10033,7 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A481" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B481" t="s">
         <v>74</v>
@@ -10127,21 +10047,21 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A482" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B482" t="s">
         <v>74</v>
       </c>
       <c r="C482" t="s">
-        <v>391</v>
+        <v>456</v>
       </c>
       <c r="D482" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A483" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B483" t="s">
         <v>74</v>
@@ -10155,7 +10075,7 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A484" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B484" t="s">
         <v>74</v>
@@ -10169,7 +10089,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A485" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B485" t="s">
         <v>74</v>
@@ -10183,7 +10103,7 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A486" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B486" t="s">
         <v>74</v>
@@ -10197,7 +10117,7 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A487" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B487" t="s">
         <v>74</v>
@@ -10211,7 +10131,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A488" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B488" t="s">
         <v>74</v>
@@ -10225,7 +10145,7 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A489" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B489" t="s">
         <v>74</v>
@@ -10239,7 +10159,7 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A490" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B490" t="s">
         <v>74</v>
@@ -10253,7 +10173,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A491" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B491" t="s">
         <v>74</v>
@@ -10267,7 +10187,7 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A492" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B492" t="s">
         <v>74</v>
@@ -10281,7 +10201,7 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A493" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B493" t="s">
         <v>74</v>
@@ -10295,7 +10215,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A494" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B494" t="s">
         <v>74</v>
@@ -10309,7 +10229,7 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A495" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B495" t="s">
         <v>74</v>
@@ -10323,7 +10243,7 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A496" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B496" t="s">
         <v>74</v>
@@ -10337,7 +10257,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A497" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B497" t="s">
         <v>74</v>
@@ -10351,7 +10271,7 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A498" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B498" t="s">
         <v>74</v>
@@ -10365,7 +10285,7 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A499" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B499" t="s">
         <v>74</v>
@@ -10379,7 +10299,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A500" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B500" t="s">
         <v>74</v>
@@ -10393,7 +10313,7 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A501" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B501" t="s">
         <v>74</v>
@@ -10407,7 +10327,7 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A502" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B502" t="s">
         <v>74</v>
@@ -10421,7 +10341,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A503" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B503" t="s">
         <v>74</v>
@@ -10435,7 +10355,7 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A504" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B504" t="s">
         <v>74</v>
@@ -10449,7 +10369,7 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A505" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B505" t="s">
         <v>74</v>
@@ -10463,7 +10383,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A506" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B506" t="s">
         <v>74</v>
@@ -10477,7 +10397,7 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A507" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B507" t="s">
         <v>74</v>
@@ -10491,7 +10411,7 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A508" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B508" t="s">
         <v>74</v>
@@ -10505,7 +10425,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A509" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B509" t="s">
         <v>74</v>
@@ -10519,7 +10439,7 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A510" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B510" t="s">
         <v>74</v>
@@ -10533,7 +10453,7 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A511" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B511" t="s">
         <v>74</v>
@@ -10547,7 +10467,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A512" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B512" t="s">
         <v>74</v>
@@ -10561,7 +10481,7 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A513" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B513" t="s">
         <v>74</v>
@@ -10575,7 +10495,7 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A514" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B514" t="s">
         <v>74</v>
@@ -10589,7 +10509,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A515" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B515" t="s">
         <v>74</v>
@@ -10603,7 +10523,7 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A516" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B516" t="s">
         <v>74</v>
@@ -10617,7 +10537,7 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A517" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B517" t="s">
         <v>74</v>
@@ -10631,7 +10551,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A518" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B518" t="s">
         <v>74</v>
@@ -10645,7 +10565,7 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A519" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B519" t="s">
         <v>74</v>
@@ -10659,7 +10579,7 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A520" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B520" t="s">
         <v>74</v>
@@ -10673,7 +10593,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A521" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B521" t="s">
         <v>74</v>
@@ -10687,7 +10607,7 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A522" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B522" t="s">
         <v>74</v>
@@ -10701,7 +10621,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A523" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B523" t="s">
         <v>74</v>
@@ -10715,7 +10635,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A524" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B524" t="s">
         <v>74</v>
@@ -10729,7 +10649,7 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A525" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B525" t="s">
         <v>74</v>
@@ -10743,7 +10663,7 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A526" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B526" t="s">
         <v>74</v>
@@ -10757,7 +10677,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A527" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B527" t="s">
         <v>74</v>
@@ -10771,7 +10691,7 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A528" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B528" t="s">
         <v>74</v>
@@ -10785,7 +10705,7 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A529" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B529" t="s">
         <v>74</v>
@@ -10799,7 +10719,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A530" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B530" t="s">
         <v>74</v>
@@ -10813,7 +10733,7 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A531" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B531" t="s">
         <v>74</v>
@@ -10827,7 +10747,7 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A532" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B532" t="s">
         <v>74</v>
@@ -10841,7 +10761,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A533" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B533" t="s">
         <v>74</v>
@@ -10855,7 +10775,7 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A534" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B534" t="s">
         <v>74</v>
@@ -10869,7 +10789,7 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A535" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B535" t="s">
         <v>74</v>
@@ -10883,7 +10803,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A536" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B536" t="s">
         <v>74</v>
@@ -10897,7 +10817,7 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A537" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B537" t="s">
         <v>74</v>
@@ -10911,7 +10831,7 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A538" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B538" t="s">
         <v>74</v>
@@ -10925,7 +10845,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A539" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B539" t="s">
         <v>74</v>
@@ -10939,7 +10859,7 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A540" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B540" t="s">
         <v>74</v>
@@ -10953,7 +10873,7 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A541" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B541" t="s">
         <v>74</v>
@@ -10967,7 +10887,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A542" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B542" t="s">
         <v>74</v>
@@ -10981,7 +10901,7 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A543" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B543" t="s">
         <v>74</v>
@@ -10995,7 +10915,7 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A544" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B544" t="s">
         <v>74</v>
@@ -11009,21 +10929,21 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A545" t="s">
-        <v>455</v>
+        <v>399</v>
       </c>
       <c r="B545" t="s">
         <v>74</v>
       </c>
       <c r="C545" t="s">
-        <v>456</v>
+        <v>638</v>
       </c>
       <c r="D545" t="s">
-        <v>457</v>
+        <v>639</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A546" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B546" t="s">
         <v>74</v>
@@ -11037,7 +10957,7 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A547" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B547" t="s">
         <v>74</v>
@@ -11051,7 +10971,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A548" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="B548" t="s">
         <v>74</v>
@@ -11065,7 +10985,7 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A549" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B549" t="s">
         <v>74</v>
@@ -11079,7 +10999,7 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A550" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B550" t="s">
         <v>74</v>
@@ -11093,7 +11013,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A551" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B551" t="s">
         <v>74</v>
@@ -11107,7 +11027,7 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A552" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B552" t="s">
         <v>74</v>
@@ -11121,7 +11041,7 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A553" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="B553" t="s">
         <v>74</v>
@@ -11135,7 +11055,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A554" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="B554" t="s">
         <v>74</v>
@@ -11149,7 +11069,7 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A555" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="B555" t="s">
         <v>74</v>
@@ -11163,7 +11083,7 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A556" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="B556" t="s">
         <v>74</v>
@@ -11177,7 +11097,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A557" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B557" t="s">
         <v>74</v>
@@ -11191,7 +11111,7 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A558" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B558" t="s">
         <v>74</v>
@@ -11205,7 +11125,7 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A559" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B559" t="s">
         <v>74</v>
@@ -11219,7 +11139,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A560" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B560" t="s">
         <v>74</v>
@@ -11233,7 +11153,7 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A561" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B561" t="s">
         <v>74</v>
@@ -11247,7 +11167,7 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A562" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B562" t="s">
         <v>74</v>
@@ -11261,7 +11181,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A563" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B563" t="s">
         <v>74</v>
@@ -11275,7 +11195,7 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A564" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B564" t="s">
         <v>74</v>
@@ -11289,7 +11209,7 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A565" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="B565" t="s">
         <v>74</v>
@@ -11303,7 +11223,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A566" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B566" t="s">
         <v>74</v>
@@ -11317,7 +11237,7 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A567" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B567" t="s">
         <v>74</v>
@@ -11331,7 +11251,7 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A568" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B568" t="s">
         <v>74</v>
@@ -11345,7 +11265,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A569" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B569" t="s">
         <v>74</v>
@@ -11359,7 +11279,7 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A570" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B570" t="s">
         <v>74</v>
@@ -11373,7 +11293,7 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A571" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B571" t="s">
         <v>74</v>
@@ -11387,7 +11307,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A572" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B572" t="s">
         <v>74</v>
@@ -11401,7 +11321,7 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A573" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B573" t="s">
         <v>74</v>
@@ -11415,7 +11335,7 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A574" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B574" t="s">
         <v>74</v>
@@ -11429,7 +11349,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A575" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B575" t="s">
         <v>74</v>
@@ -11443,7 +11363,7 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A576" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B576" t="s">
         <v>74</v>
@@ -11457,7 +11377,7 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A577" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B577" t="s">
         <v>74</v>
@@ -11471,7 +11391,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A578" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B578" t="s">
         <v>74</v>
@@ -11485,7 +11405,7 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A579" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B579" t="s">
         <v>74</v>
@@ -11499,7 +11419,7 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A580" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B580" t="s">
         <v>74</v>
@@ -11513,7 +11433,7 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A581" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B581" t="s">
         <v>74</v>
@@ -11527,7 +11447,7 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A582" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B582" t="s">
         <v>74</v>
@@ -11541,7 +11461,7 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A583" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B583" t="s">
         <v>74</v>
@@ -11555,7 +11475,7 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A584" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B584" t="s">
         <v>74</v>
@@ -11569,7 +11489,7 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A585" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B585" t="s">
         <v>74</v>
@@ -11583,7 +11503,7 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A586" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B586" t="s">
         <v>74</v>
@@ -11597,7 +11517,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A587" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B587" t="s">
         <v>74</v>
@@ -11611,7 +11531,7 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A588" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B588" t="s">
         <v>74</v>
@@ -11625,7 +11545,7 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A589" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B589" t="s">
         <v>74</v>
@@ -11639,7 +11559,7 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A590" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B590" t="s">
         <v>74</v>
@@ -11653,7 +11573,7 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A591" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B591" t="s">
         <v>74</v>
@@ -11667,7 +11587,7 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A592" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B592" t="s">
         <v>74</v>
@@ -11681,7 +11601,7 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A593" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B593" t="s">
         <v>74</v>
@@ -11695,7 +11615,7 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A594" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B594" t="s">
         <v>74</v>
@@ -11709,7 +11629,7 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A595" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B595" t="s">
         <v>74</v>
@@ -11723,7 +11643,7 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A596" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B596" t="s">
         <v>74</v>
@@ -11737,7 +11657,7 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A597" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B597" t="s">
         <v>74</v>
@@ -11751,7 +11671,7 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A598" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B598" t="s">
         <v>74</v>
@@ -11765,7 +11685,7 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A599" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B599" t="s">
         <v>74</v>
@@ -11779,7 +11699,7 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A600" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B600" t="s">
         <v>74</v>
@@ -11793,7 +11713,7 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A601" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B601" t="s">
         <v>74</v>
@@ -11807,7 +11727,7 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A602" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B602" t="s">
         <v>74</v>
@@ -11821,7 +11741,7 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A603" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B603" t="s">
         <v>74</v>
@@ -11835,7 +11755,7 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A604" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B604" t="s">
         <v>74</v>
@@ -11849,7 +11769,7 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A605" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B605" t="s">
         <v>74</v>
@@ -11863,7 +11783,7 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A606" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B606" t="s">
         <v>74</v>
@@ -11877,7 +11797,7 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A607" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B607" t="s">
         <v>74</v>
@@ -11891,7 +11811,7 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A608" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B608" t="s">
         <v>74</v>
@@ -11905,7 +11825,7 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A609" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B609" t="s">
         <v>74</v>
@@ -11919,7 +11839,7 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A610" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B610" t="s">
         <v>74</v>
@@ -11933,7 +11853,7 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A611" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B611" t="s">
         <v>74</v>
@@ -11947,7 +11867,7 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A612" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B612" t="s">
         <v>74</v>
@@ -11961,7 +11881,7 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A613" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B613" t="s">
         <v>74</v>
@@ -11975,7 +11895,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A614" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B614" t="s">
         <v>74</v>
@@ -11989,7 +11909,7 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A615" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B615" t="s">
         <v>74</v>
@@ -12003,7 +11923,7 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A616" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B616" t="s">
         <v>74</v>
@@ -12017,7 +11937,7 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A617" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B617" t="s">
         <v>74</v>
@@ -12031,7 +11951,7 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A618" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B618" t="s">
         <v>74</v>
@@ -12045,7 +11965,7 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A619" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B619" t="s">
         <v>74</v>
@@ -12059,7 +11979,7 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A620" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B620" t="s">
         <v>74</v>
@@ -12073,7 +11993,7 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A621" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B621" t="s">
         <v>74</v>
@@ -12087,7 +12007,7 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A622" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B622" t="s">
         <v>74</v>
@@ -12101,7 +12021,7 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A623" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B623" t="s">
         <v>74</v>
@@ -12115,7 +12035,7 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A624" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B624" t="s">
         <v>74</v>
@@ -12129,7 +12049,7 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A625" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B625" t="s">
         <v>74</v>
@@ -12143,7 +12063,7 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A626" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B626" t="s">
         <v>74</v>
@@ -12157,7 +12077,7 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A627" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B627" t="s">
         <v>74</v>
@@ -12171,7 +12091,7 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A628" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B628" t="s">
         <v>74</v>
@@ -12185,7 +12105,7 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A629" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B629" t="s">
         <v>74</v>
@@ -12199,7 +12119,7 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A630" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B630" t="s">
         <v>74</v>
@@ -12213,7 +12133,7 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A631" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B631" t="s">
         <v>74</v>
@@ -12227,7 +12147,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A632" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B632" t="s">
         <v>74</v>
@@ -12241,7 +12161,7 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A633" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B633" t="s">
         <v>74</v>
@@ -12255,7 +12175,7 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A634" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B634" t="s">
         <v>74</v>
@@ -12269,7 +12189,7 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A635" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B635" t="s">
         <v>74</v>
@@ -12283,7 +12203,7 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A636" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B636" t="s">
         <v>74</v>
@@ -12297,7 +12217,7 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A637" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B637" t="s">
         <v>74</v>
@@ -12311,7 +12231,7 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A638" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B638" t="s">
         <v>74</v>
@@ -12325,7 +12245,7 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A639" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B639" t="s">
         <v>74</v>
@@ -12339,7 +12259,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A640" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B640" t="s">
         <v>74</v>
@@ -12353,7 +12273,7 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A641" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B641" t="s">
         <v>74</v>
@@ -12367,7 +12287,7 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A642" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B642" t="s">
         <v>74</v>
@@ -12381,7 +12301,7 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A643" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B643" t="s">
         <v>74</v>
@@ -12395,7 +12315,7 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A644" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B644" t="s">
         <v>74</v>
@@ -12409,7 +12329,7 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A645" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B645" t="s">
         <v>74</v>
@@ -12423,7 +12343,7 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A646" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B646" t="s">
         <v>74</v>
@@ -12437,7 +12357,7 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A647" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B647" t="s">
         <v>74</v>
@@ -12451,7 +12371,7 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A648" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B648" t="s">
         <v>74</v>
@@ -12465,7 +12385,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A649" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B649" t="s">
         <v>74</v>
@@ -12479,7 +12399,7 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A650" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B650" t="s">
         <v>74</v>
@@ -12493,7 +12413,7 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A651" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B651" t="s">
         <v>74</v>
@@ -12507,7 +12427,7 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A652" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B652" t="s">
         <v>74</v>
@@ -12521,7 +12441,7 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A653" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B653" t="s">
         <v>74</v>
@@ -12535,7 +12455,7 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A654" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B654" t="s">
         <v>74</v>
@@ -12549,7 +12469,7 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A655" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B655" t="s">
         <v>74</v>
@@ -12563,7 +12483,7 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A656" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B656" t="s">
         <v>74</v>
@@ -12577,7 +12497,7 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A657" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B657" t="s">
         <v>74</v>
@@ -12591,7 +12511,7 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A658" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B658" t="s">
         <v>74</v>
@@ -12605,7 +12525,7 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A659" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B659" t="s">
         <v>74</v>
@@ -12619,7 +12539,7 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A660" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B660" t="s">
         <v>74</v>
@@ -12633,7 +12553,7 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A661" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B661" t="s">
         <v>74</v>
@@ -12647,7 +12567,7 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A662" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B662" t="s">
         <v>74</v>
@@ -12661,7 +12581,7 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A663" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B663" t="s">
         <v>74</v>
@@ -12675,7 +12595,7 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A664" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B664" t="s">
         <v>74</v>
@@ -12689,7 +12609,7 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A665" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B665" t="s">
         <v>74</v>
@@ -12703,7 +12623,7 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A666" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B666" t="s">
         <v>74</v>
@@ -12717,7 +12637,7 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A667" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B667" t="s">
         <v>74</v>
@@ -12731,7 +12651,7 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A668" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B668" t="s">
         <v>74</v>
@@ -12745,7 +12665,7 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A669" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B669" t="s">
         <v>74</v>
@@ -12759,10 +12679,10 @@
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A670" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B670" t="s">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="C670" t="s">
         <v>638</v>
@@ -12773,10 +12693,10 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A671" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B671" t="s">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="C671" t="s">
         <v>638</v>
@@ -12787,7 +12707,7 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A672" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B672" t="s">
         <v>74</v>
@@ -12801,7 +12721,7 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A673" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B673" t="s">
         <v>74</v>
@@ -12815,7 +12735,7 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A674" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B674" t="s">
         <v>74</v>
@@ -12829,7 +12749,7 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A675" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B675" t="s">
         <v>74</v>
@@ -12843,7 +12763,7 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A676" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B676" t="s">
         <v>74</v>
@@ -12857,7 +12777,7 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A677" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B677" t="s">
         <v>74</v>
@@ -12871,7 +12791,7 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A678" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B678" t="s">
         <v>74</v>
@@ -12885,7 +12805,7 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A679" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B679" t="s">
         <v>74</v>
@@ -12899,7 +12819,7 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A680" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B680" t="s">
         <v>74</v>
@@ -12913,7 +12833,7 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A681" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B681" t="s">
         <v>74</v>
@@ -12927,7 +12847,7 @@
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A682" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B682" t="s">
         <v>74</v>
@@ -12941,7 +12861,7 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A683" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B683" t="s">
         <v>74</v>
@@ -12955,7 +12875,7 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A684" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B684" t="s">
         <v>74</v>
@@ -12969,7 +12889,7 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A685" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B685" t="s">
         <v>74</v>
@@ -12983,7 +12903,7 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A686" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B686" t="s">
         <v>74</v>
@@ -12997,7 +12917,7 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A687" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B687" t="s">
         <v>74</v>
@@ -13011,7 +12931,7 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A688" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B688" t="s">
         <v>74</v>
@@ -13025,7 +12945,7 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A689" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B689" t="s">
         <v>74</v>
@@ -13039,7 +12959,7 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A690" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B690" t="s">
         <v>74</v>
@@ -13053,7 +12973,7 @@
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A691" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B691" t="s">
         <v>74</v>
@@ -13067,7 +12987,7 @@
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A692" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B692" t="s">
         <v>74</v>
@@ -13081,7 +13001,7 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A693" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B693" t="s">
         <v>74</v>
@@ -13095,7 +13015,7 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A694" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B694" t="s">
         <v>74</v>
@@ -13109,7 +13029,7 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A695" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B695" t="s">
         <v>74</v>
@@ -13123,7 +13043,7 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A696" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B696" t="s">
         <v>74</v>
@@ -13137,7 +13057,7 @@
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A697" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B697" t="s">
         <v>74</v>
@@ -13151,7 +13071,7 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A698" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B698" t="s">
         <v>74</v>
@@ -13165,7 +13085,7 @@
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A699" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B699" t="s">
         <v>74</v>
@@ -13179,7 +13099,7 @@
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A700" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B700" t="s">
         <v>74</v>
@@ -13193,7 +13113,7 @@
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A701" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B701" t="s">
         <v>74</v>
@@ -13207,7 +13127,7 @@
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A702" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B702" t="s">
         <v>74</v>
@@ -13221,7 +13141,7 @@
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A703" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B703" t="s">
         <v>74</v>
@@ -13235,7 +13155,7 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A704" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B704" t="s">
         <v>74</v>
@@ -13249,7 +13169,7 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A705" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B705" t="s">
         <v>74</v>
@@ -13263,7 +13183,7 @@
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A706" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B706" t="s">
         <v>74</v>
@@ -13277,7 +13197,7 @@
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A707" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B707" t="s">
         <v>74</v>
@@ -13291,7 +13211,7 @@
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A708" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B708" t="s">
         <v>74</v>
@@ -13305,7 +13225,7 @@
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A709" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B709" t="s">
         <v>74</v>
@@ -13319,7 +13239,7 @@
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A710" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B710" t="s">
         <v>74</v>
@@ -13333,7 +13253,7 @@
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A711" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B711" t="s">
         <v>74</v>
@@ -13347,7 +13267,7 @@
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A712" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B712" t="s">
         <v>74</v>
@@ -13361,7 +13281,7 @@
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A713" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B713" t="s">
         <v>74</v>
@@ -13375,7 +13295,7 @@
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A714" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B714" t="s">
         <v>74</v>
@@ -13389,7 +13309,7 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A715" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B715" t="s">
         <v>74</v>
@@ -13403,7 +13323,7 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A716" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B716" t="s">
         <v>74</v>
@@ -13417,7 +13337,7 @@
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A717" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B717" t="s">
         <v>74</v>
@@ -13431,7 +13351,7 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A718" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B718" t="s">
         <v>74</v>
@@ -13445,7 +13365,7 @@
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A719" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B719" t="s">
         <v>74</v>
@@ -13459,7 +13379,7 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A720" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B720" t="s">
         <v>74</v>
@@ -13473,7 +13393,7 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A721" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B721" t="s">
         <v>74</v>
@@ -13487,7 +13407,7 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A722" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B722" t="s">
         <v>74</v>
@@ -13501,7 +13421,7 @@
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A723" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B723" t="s">
         <v>74</v>
@@ -13515,7 +13435,7 @@
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A724" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B724" t="s">
         <v>74</v>
@@ -13529,7 +13449,7 @@
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A725" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B725" t="s">
         <v>74</v>
@@ -13543,7 +13463,7 @@
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A726" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B726" t="s">
         <v>74</v>
@@ -13557,7 +13477,7 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A727" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B727" t="s">
         <v>74</v>
@@ -13571,7 +13491,7 @@
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A728" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B728" t="s">
         <v>74</v>
@@ -13585,7 +13505,7 @@
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A729" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B729" t="s">
         <v>74</v>
@@ -13599,7 +13519,7 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A730" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B730" t="s">
         <v>74</v>
@@ -13613,7 +13533,7 @@
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A731" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B731" t="s">
         <v>74</v>
@@ -13627,7 +13547,7 @@
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A732" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B732" t="s">
         <v>74</v>
@@ -13641,7 +13561,7 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A733" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B733" t="s">
         <v>74</v>
@@ -13655,7 +13575,7 @@
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A734" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B734" t="s">
         <v>74</v>
@@ -13669,7 +13589,7 @@
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A735" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B735" t="s">
         <v>74</v>
@@ -13683,21 +13603,21 @@
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A736" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B736" t="s">
         <v>74</v>
       </c>
       <c r="C736" t="s">
-        <v>638</v>
+        <v>676</v>
       </c>
       <c r="D736" t="s">
-        <v>639</v>
+        <v>677</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A737" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B737" t="s">
         <v>74</v>
@@ -13711,7 +13631,7 @@
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A738" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B738" t="s">
         <v>74</v>
@@ -13725,7 +13645,7 @@
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A739" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B739" t="s">
         <v>74</v>
@@ -13739,7 +13659,7 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A740" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B740" t="s">
         <v>74</v>
@@ -13753,7 +13673,7 @@
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A741" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B741" t="s">
         <v>74</v>
@@ -13767,7 +13687,7 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A742" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B742" t="s">
         <v>74</v>
@@ -13781,7 +13701,7 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A743" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B743" t="s">
         <v>74</v>
@@ -13795,7 +13715,7 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A744" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B744" t="s">
         <v>74</v>
@@ -13809,7 +13729,7 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A745" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B745" t="s">
         <v>74</v>
@@ -13823,7 +13743,7 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A746" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B746" t="s">
         <v>74</v>
@@ -13837,7 +13757,7 @@
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A747" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B747" t="s">
         <v>74</v>
@@ -13851,7 +13771,7 @@
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A748" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B748" t="s">
         <v>74</v>
@@ -13865,7 +13785,7 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A749" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B749" t="s">
         <v>74</v>
@@ -13879,7 +13799,7 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A750" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B750" t="s">
         <v>74</v>
@@ -13893,7 +13813,7 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A751" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B751" t="s">
         <v>74</v>
@@ -13907,7 +13827,7 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A752" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B752" t="s">
         <v>74</v>
@@ -13921,7 +13841,7 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A753" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B753" t="s">
         <v>74</v>
@@ -13935,7 +13855,7 @@
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A754" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B754" t="s">
         <v>74</v>
@@ -13949,10 +13869,10 @@
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A755" t="s">
-        <v>658</v>
-      </c>
-      <c r="B755" s="1" t="s">
-        <v>979</v>
+        <v>660</v>
+      </c>
+      <c r="B755" t="s">
+        <v>74</v>
       </c>
       <c r="C755" t="s">
         <v>676</v>
@@ -13963,7 +13883,7 @@
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A756" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B756" t="s">
         <v>74</v>
@@ -13977,7 +13897,7 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A757" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B757" t="s">
         <v>74</v>
@@ -13991,7 +13911,7 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A758" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B758" t="s">
         <v>74</v>
@@ -14005,7 +13925,7 @@
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A759" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B759" t="s">
         <v>74</v>
@@ -14019,7 +13939,7 @@
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A760" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B760" t="s">
         <v>74</v>
@@ -14033,7 +13953,7 @@
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A761" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B761" t="s">
         <v>74</v>
@@ -14047,7 +13967,7 @@
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A762" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B762" t="s">
         <v>74</v>
@@ -14061,7 +13981,7 @@
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A763" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B763" t="s">
         <v>74</v>
@@ -14075,7 +13995,7 @@
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A764" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B764" t="s">
         <v>74</v>
@@ -14089,7 +14009,7 @@
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A765" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B765" t="s">
         <v>74</v>
@@ -14103,7 +14023,7 @@
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A766" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B766" t="s">
         <v>74</v>
@@ -14117,7 +14037,7 @@
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A767" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B767" t="s">
         <v>74</v>
@@ -14131,7 +14051,7 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A768" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B768" t="s">
         <v>74</v>
@@ -14145,7 +14065,7 @@
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A769" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B769" t="s">
         <v>74</v>
@@ -14159,7 +14079,7 @@
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A770" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B770" t="s">
         <v>74</v>
@@ -14173,35 +14093,35 @@
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A771" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B771" t="s">
         <v>74</v>
       </c>
       <c r="C771" t="s">
-        <v>676</v>
+        <v>710</v>
       </c>
       <c r="D771" t="s">
-        <v>677</v>
+        <v>711</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A772" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B772" t="s">
         <v>74</v>
       </c>
       <c r="C772" t="s">
-        <v>676</v>
+        <v>710</v>
       </c>
       <c r="D772" t="s">
-        <v>677</v>
+        <v>711</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A773" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B773" t="s">
         <v>74</v>
@@ -14215,7 +14135,7 @@
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A774" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B774" t="s">
         <v>74</v>
@@ -14229,7 +14149,7 @@
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A775" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B775" t="s">
         <v>74</v>
@@ -14243,7 +14163,7 @@
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A776" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B776" t="s">
         <v>74</v>
@@ -14257,7 +14177,7 @@
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A777" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B777" t="s">
         <v>74</v>
@@ -14271,7 +14191,7 @@
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A778" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B778" t="s">
         <v>74</v>
@@ -14285,7 +14205,7 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A779" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B779" t="s">
         <v>74</v>
@@ -14299,7 +14219,7 @@
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A780" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B780" t="s">
         <v>74</v>
@@ -14313,7 +14233,7 @@
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A781" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B781" t="s">
         <v>74</v>
@@ -14327,7 +14247,7 @@
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A782" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B782" t="s">
         <v>74</v>
@@ -14341,7 +14261,7 @@
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A783" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B783" t="s">
         <v>74</v>
@@ -14355,7 +14275,7 @@
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A784" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B784" t="s">
         <v>74</v>
@@ -14369,7 +14289,7 @@
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A785" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B785" t="s">
         <v>74</v>
@@ -14383,7 +14303,7 @@
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A786" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B786" t="s">
         <v>74</v>
@@ -14397,7 +14317,7 @@
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A787" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B787" t="s">
         <v>74</v>
@@ -14411,7 +14331,7 @@
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A788" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B788" t="s">
         <v>74</v>
@@ -14425,7 +14345,7 @@
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A789" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B789" t="s">
         <v>74</v>
@@ -14439,7 +14359,7 @@
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A790" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B790" t="s">
         <v>74</v>
@@ -14453,7 +14373,7 @@
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A791" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B791" t="s">
         <v>74</v>
@@ -14467,7 +14387,7 @@
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A792" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B792" t="s">
         <v>74</v>
@@ -14481,7 +14401,7 @@
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A793" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B793" t="s">
         <v>74</v>
@@ -14495,7 +14415,7 @@
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A794" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B794" t="s">
         <v>74</v>
@@ -14509,7 +14429,7 @@
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A795" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B795" t="s">
         <v>74</v>
@@ -14523,7 +14443,7 @@
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A796" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B796" t="s">
         <v>74</v>
@@ -14537,7 +14457,7 @@
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A797" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B797" t="s">
         <v>74</v>
@@ -14551,7 +14471,7 @@
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A798" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B798" t="s">
         <v>74</v>
@@ -14565,7 +14485,7 @@
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A799" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B799" t="s">
         <v>74</v>
@@ -14579,7 +14499,7 @@
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A800" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B800" t="s">
         <v>74</v>
@@ -14593,7 +14513,7 @@
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A801" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B801" t="s">
         <v>74</v>
@@ -14607,7 +14527,7 @@
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A802" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B802" t="s">
         <v>74</v>
@@ -14621,35 +14541,35 @@
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A803" t="s">
-        <v>708</v>
+        <v>80</v>
       </c>
       <c r="B803" t="s">
         <v>74</v>
       </c>
       <c r="C803" t="s">
-        <v>710</v>
+        <v>773</v>
       </c>
       <c r="D803" t="s">
-        <v>711</v>
+        <v>774</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A804" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B804" t="s">
         <v>74</v>
       </c>
       <c r="C804" t="s">
-        <v>710</v>
+        <v>773</v>
       </c>
       <c r="D804" t="s">
-        <v>711</v>
+        <v>774</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A805" t="s">
-        <v>80</v>
+        <v>713</v>
       </c>
       <c r="B805" t="s">
         <v>74</v>
@@ -14663,7 +14583,7 @@
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A806" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B806" t="s">
         <v>74</v>
@@ -14677,7 +14597,7 @@
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A807" t="s">
-        <v>713</v>
+        <v>77</v>
       </c>
       <c r="B807" t="s">
         <v>74</v>
@@ -14691,7 +14611,7 @@
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A808" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B808" t="s">
         <v>74</v>
@@ -14705,7 +14625,7 @@
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A809" t="s">
-        <v>77</v>
+        <v>716</v>
       </c>
       <c r="B809" t="s">
         <v>74</v>
@@ -14719,7 +14639,7 @@
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A810" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B810" t="s">
         <v>74</v>
@@ -14733,7 +14653,7 @@
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A811" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B811" t="s">
         <v>74</v>
@@ -14747,7 +14667,7 @@
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A812" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B812" t="s">
         <v>74</v>
@@ -14761,7 +14681,7 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A813" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B813" t="s">
         <v>74</v>
@@ -14775,7 +14695,7 @@
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A814" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B814" t="s">
         <v>74</v>
@@ -14789,7 +14709,7 @@
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A815" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B815" t="s">
         <v>74</v>
@@ -14803,7 +14723,7 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A816" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B816" t="s">
         <v>74</v>
@@ -14817,7 +14737,7 @@
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A817" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B817" t="s">
         <v>74</v>
@@ -14831,7 +14751,7 @@
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A818" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B818" t="s">
         <v>74</v>
@@ -14845,7 +14765,7 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A819" t="s">
-        <v>724</v>
+        <v>84</v>
       </c>
       <c r="B819" t="s">
         <v>74</v>
@@ -14859,7 +14779,7 @@
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A820" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B820" t="s">
         <v>74</v>
@@ -14873,7 +14793,7 @@
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A821" t="s">
-        <v>84</v>
+        <v>727</v>
       </c>
       <c r="B821" t="s">
         <v>74</v>
@@ -14887,7 +14807,7 @@
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A822" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B822" t="s">
         <v>74</v>
@@ -14901,7 +14821,7 @@
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A823" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B823" t="s">
         <v>74</v>
@@ -14915,7 +14835,7 @@
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A824" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B824" t="s">
         <v>74</v>
@@ -14929,7 +14849,7 @@
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A825" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B825" t="s">
         <v>74</v>
@@ -14943,7 +14863,7 @@
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A826" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B826" t="s">
         <v>74</v>
@@ -14957,7 +14877,7 @@
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A827" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B827" t="s">
         <v>74</v>
@@ -14971,7 +14891,7 @@
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A828" t="s">
-        <v>732</v>
+        <v>89</v>
       </c>
       <c r="B828" t="s">
         <v>74</v>
@@ -14985,7 +14905,7 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A829" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B829" t="s">
         <v>74</v>
@@ -14999,7 +14919,7 @@
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A830" t="s">
-        <v>89</v>
+        <v>735</v>
       </c>
       <c r="B830" t="s">
         <v>74</v>
@@ -15013,7 +14933,7 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A831" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B831" t="s">
         <v>74</v>
@@ -15027,7 +14947,7 @@
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A832" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B832" t="s">
         <v>74</v>
@@ -15041,7 +14961,7 @@
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A833" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B833" t="s">
         <v>74</v>
@@ -15055,7 +14975,7 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A834" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B834" t="s">
         <v>74</v>
@@ -15069,7 +14989,7 @@
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A835" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B835" t="s">
         <v>74</v>
@@ -15083,7 +15003,7 @@
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A836" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B836" t="s">
         <v>74</v>
@@ -15097,7 +15017,7 @@
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A837" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B837" t="s">
         <v>74</v>
@@ -15111,7 +15031,7 @@
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A838" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B838" t="s">
         <v>74</v>
@@ -15125,7 +15045,7 @@
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A839" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B839" t="s">
         <v>74</v>
@@ -15139,7 +15059,7 @@
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A840" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B840" t="s">
         <v>74</v>
@@ -15153,7 +15073,7 @@
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A841" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B841" t="s">
         <v>74</v>
@@ -15167,7 +15087,7 @@
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A842" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B842" t="s">
         <v>74</v>
@@ -15181,7 +15101,7 @@
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A843" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B843" t="s">
         <v>74</v>
@@ -15195,7 +15115,7 @@
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A844" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B844" t="s">
         <v>74</v>
@@ -15209,7 +15129,7 @@
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A845" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B845" t="s">
         <v>74</v>
@@ -15223,7 +15143,7 @@
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A846" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B846" t="s">
         <v>74</v>
@@ -15237,7 +15157,7 @@
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A847" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B847" t="s">
         <v>74</v>
@@ -15251,7 +15171,7 @@
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A848" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B848" t="s">
         <v>74</v>
@@ -15265,7 +15185,7 @@
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A849" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B849" t="s">
         <v>74</v>
@@ -15279,7 +15199,7 @@
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A850" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B850" t="s">
         <v>74</v>
@@ -15293,7 +15213,7 @@
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A851" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B851" t="s">
         <v>74</v>
@@ -15307,7 +15227,7 @@
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A852" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B852" t="s">
         <v>74</v>
@@ -15321,7 +15241,7 @@
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A853" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B853" t="s">
         <v>74</v>
@@ -15335,7 +15255,7 @@
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A854" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B854" t="s">
         <v>74</v>
@@ -15349,7 +15269,7 @@
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A855" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B855" t="s">
         <v>74</v>
@@ -15363,7 +15283,7 @@
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A856" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B856" t="s">
         <v>74</v>
@@ -15377,7 +15297,7 @@
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A857" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B857" t="s">
         <v>74</v>
@@ -15391,7 +15311,7 @@
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A858" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B858" t="s">
         <v>74</v>
@@ -15405,7 +15325,7 @@
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A859" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B859" t="s">
         <v>74</v>
@@ -15419,7 +15339,7 @@
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A860" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B860" t="s">
         <v>74</v>
@@ -15433,7 +15353,7 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A861" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B861" t="s">
         <v>74</v>
@@ -15447,7 +15367,7 @@
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A862" t="s">
-        <v>765</v>
+        <v>447</v>
       </c>
       <c r="B862" t="s">
         <v>74</v>
@@ -15461,7 +15381,7 @@
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A863" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B863" t="s">
         <v>74</v>
@@ -15475,7 +15395,7 @@
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A864" t="s">
-        <v>447</v>
+        <v>768</v>
       </c>
       <c r="B864" t="s">
         <v>74</v>
@@ -15489,7 +15409,7 @@
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A865" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B865" t="s">
         <v>74</v>
@@ -15503,7 +15423,7 @@
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A866" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B866" t="s">
         <v>74</v>
@@ -15517,7 +15437,7 @@
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A867" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B867" t="s">
         <v>74</v>
@@ -15531,7 +15451,7 @@
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A868" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B868" t="s">
         <v>74</v>
@@ -15545,35 +15465,35 @@
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A869" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B869" t="s">
         <v>74</v>
       </c>
       <c r="C869" t="s">
-        <v>773</v>
+        <v>801</v>
       </c>
       <c r="D869" t="s">
-        <v>774</v>
+        <v>802</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A870" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B870" t="s">
         <v>74</v>
       </c>
       <c r="C870" t="s">
-        <v>773</v>
+        <v>801</v>
       </c>
       <c r="D870" t="s">
-        <v>774</v>
+        <v>802</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A871" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B871" t="s">
         <v>74</v>
@@ -15587,7 +15507,7 @@
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A872" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B872" t="s">
         <v>74</v>
@@ -15601,7 +15521,7 @@
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A873" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B873" t="s">
         <v>74</v>
@@ -15615,7 +15535,7 @@
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A874" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B874" t="s">
         <v>74</v>
@@ -15629,7 +15549,7 @@
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A875" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B875" t="s">
         <v>74</v>
@@ -15643,7 +15563,7 @@
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A876" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B876" t="s">
         <v>74</v>
@@ -15657,7 +15577,7 @@
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A877" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B877" t="s">
         <v>74</v>
@@ -15671,7 +15591,7 @@
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A878" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B878" t="s">
         <v>74</v>
@@ -15685,7 +15605,7 @@
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A879" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B879" t="s">
         <v>74</v>
@@ -15699,7 +15619,7 @@
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A880" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B880" t="s">
         <v>74</v>
@@ -15713,7 +15633,7 @@
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A881" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B881" t="s">
         <v>74</v>
@@ -15727,7 +15647,7 @@
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A882" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B882" t="s">
         <v>74</v>
@@ -15741,7 +15661,7 @@
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A883" t="s">
-        <v>787</v>
+        <v>276</v>
       </c>
       <c r="B883" t="s">
         <v>74</v>
@@ -15755,7 +15675,7 @@
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A884" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B884" t="s">
         <v>74</v>
@@ -15769,7 +15689,7 @@
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A885" t="s">
-        <v>276</v>
+        <v>790</v>
       </c>
       <c r="B885" t="s">
         <v>74</v>
@@ -15783,7 +15703,7 @@
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A886" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B886" t="s">
         <v>74</v>
@@ -15797,7 +15717,7 @@
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A887" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B887" t="s">
         <v>74</v>
@@ -15811,7 +15731,7 @@
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A888" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B888" t="s">
         <v>74</v>
@@ -15825,7 +15745,7 @@
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A889" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B889" t="s">
         <v>74</v>
@@ -15839,7 +15759,7 @@
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A890" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B890" t="s">
         <v>74</v>
@@ -15853,7 +15773,7 @@
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A891" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B891" t="s">
         <v>74</v>
@@ -15867,7 +15787,7 @@
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A892" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B892" t="s">
         <v>74</v>
@@ -15881,7 +15801,7 @@
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A893" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B893" t="s">
         <v>74</v>
@@ -15895,7 +15815,7 @@
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A894" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B894" t="s">
         <v>74</v>
@@ -15909,7 +15829,7 @@
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A895" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B895" t="s">
         <v>74</v>
@@ -15923,35 +15843,35 @@
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A896" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B896" t="s">
         <v>74</v>
       </c>
       <c r="C896" t="s">
-        <v>801</v>
+        <v>946</v>
       </c>
       <c r="D896" t="s">
-        <v>802</v>
+        <v>947</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A897" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B897" t="s">
         <v>74</v>
       </c>
       <c r="C897" t="s">
-        <v>801</v>
+        <v>946</v>
       </c>
       <c r="D897" t="s">
-        <v>802</v>
+        <v>947</v>
       </c>
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A898" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B898" t="s">
         <v>74</v>
@@ -15965,7 +15885,7 @@
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A899" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B899" t="s">
         <v>74</v>
@@ -15979,7 +15899,7 @@
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A900" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B900" t="s">
         <v>74</v>
@@ -15993,7 +15913,7 @@
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A901" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B901" t="s">
         <v>74</v>
@@ -16007,7 +15927,7 @@
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A902" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B902" t="s">
         <v>74</v>
@@ -16021,7 +15941,7 @@
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A903" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B903" t="s">
         <v>74</v>
@@ -16035,7 +15955,7 @@
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A904" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B904" t="s">
         <v>74</v>
@@ -16049,7 +15969,7 @@
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A905" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B905" t="s">
         <v>74</v>
@@ -16063,7 +15983,7 @@
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A906" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B906" t="s">
         <v>74</v>
@@ -16077,7 +15997,7 @@
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A907" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B907" t="s">
         <v>74</v>
@@ -16091,7 +16011,7 @@
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A908" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B908" t="s">
         <v>74</v>
@@ -16105,7 +16025,7 @@
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A909" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B909" t="s">
         <v>74</v>
@@ -16119,7 +16039,7 @@
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A910" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B910" t="s">
         <v>74</v>
@@ -16133,7 +16053,7 @@
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A911" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B911" t="s">
         <v>74</v>
@@ -16147,7 +16067,7 @@
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A912" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B912" t="s">
         <v>74</v>
@@ -16161,7 +16081,7 @@
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A913" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B913" t="s">
         <v>74</v>
@@ -16175,7 +16095,7 @@
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A914" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B914" t="s">
         <v>74</v>
@@ -16189,7 +16109,7 @@
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A915" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B915" t="s">
         <v>74</v>
@@ -16203,7 +16123,7 @@
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A916" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B916" t="s">
         <v>74</v>
@@ -16217,7 +16137,7 @@
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A917" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B917" t="s">
         <v>74</v>
@@ -16231,7 +16151,7 @@
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A918" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B918" t="s">
         <v>74</v>
@@ -16245,7 +16165,7 @@
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A919" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B919" t="s">
         <v>74</v>
@@ -16259,7 +16179,7 @@
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A920" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B920" t="s">
         <v>74</v>
@@ -16273,7 +16193,7 @@
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A921" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B921" t="s">
         <v>74</v>
@@ -16287,7 +16207,7 @@
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A922" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B922" t="s">
         <v>74</v>
@@ -16301,7 +16221,7 @@
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A923" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B923" t="s">
         <v>74</v>
@@ -16315,7 +16235,7 @@
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A924" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B924" t="s">
         <v>74</v>
@@ -16329,7 +16249,7 @@
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A925" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B925" t="s">
         <v>74</v>
@@ -16343,7 +16263,7 @@
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A926" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B926" t="s">
         <v>74</v>
@@ -16357,7 +16277,7 @@
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A927" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B927" t="s">
         <v>74</v>
@@ -16371,7 +16291,7 @@
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A928" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B928" t="s">
         <v>74</v>
@@ -16385,7 +16305,7 @@
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A929" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B929" t="s">
         <v>74</v>
@@ -16399,7 +16319,7 @@
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A930" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B930" t="s">
         <v>74</v>
@@ -16413,7 +16333,7 @@
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A931" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B931" t="s">
         <v>74</v>
@@ -16427,7 +16347,7 @@
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A932" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B932" t="s">
         <v>74</v>
@@ -16441,7 +16361,7 @@
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A933" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B933" t="s">
         <v>74</v>
@@ -16455,7 +16375,7 @@
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A934" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B934" t="s">
         <v>74</v>
@@ -16469,7 +16389,7 @@
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A935" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B935" t="s">
         <v>74</v>
@@ -16483,7 +16403,7 @@
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A936" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B936" t="s">
         <v>74</v>
@@ -16497,7 +16417,7 @@
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A937" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B937" t="s">
         <v>74</v>
@@ -16511,7 +16431,7 @@
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A938" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B938" t="s">
         <v>74</v>
@@ -16525,7 +16445,7 @@
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A939" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B939" t="s">
         <v>74</v>
@@ -16539,7 +16459,7 @@
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A940" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B940" t="s">
         <v>74</v>
@@ -16553,7 +16473,7 @@
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A941" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B941" t="s">
         <v>74</v>
@@ -16567,7 +16487,7 @@
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A942" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B942" t="s">
         <v>74</v>
@@ -16581,7 +16501,7 @@
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A943" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B943" t="s">
         <v>74</v>
@@ -16595,7 +16515,7 @@
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A944" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B944" t="s">
         <v>74</v>
@@ -16609,7 +16529,7 @@
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A945" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B945" t="s">
         <v>74</v>
@@ -16623,7 +16543,7 @@
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A946" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B946" t="s">
         <v>74</v>
@@ -16637,7 +16557,7 @@
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A947" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B947" t="s">
         <v>74</v>
@@ -16651,7 +16571,7 @@
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A948" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B948" t="s">
         <v>74</v>
@@ -16665,7 +16585,7 @@
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A949" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B949" t="s">
         <v>74</v>
@@ -16679,7 +16599,7 @@
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A950" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B950" t="s">
         <v>74</v>
@@ -16693,7 +16613,7 @@
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A951" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B951" t="s">
         <v>74</v>
@@ -16707,7 +16627,7 @@
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A952" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B952" t="s">
         <v>74</v>
@@ -16721,7 +16641,7 @@
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A953" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B953" t="s">
         <v>74</v>
@@ -16735,7 +16655,7 @@
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A954" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B954" t="s">
         <v>74</v>
@@ -16749,7 +16669,7 @@
     </row>
     <row r="955" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A955" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B955" t="s">
         <v>74</v>
@@ -16763,7 +16683,7 @@
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A956" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B956" t="s">
         <v>74</v>
@@ -16777,7 +16697,7 @@
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A957" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B957" t="s">
         <v>74</v>
@@ -16791,7 +16711,7 @@
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A958" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B958" t="s">
         <v>74</v>
@@ -16805,7 +16725,7 @@
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A959" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B959" t="s">
         <v>74</v>
@@ -16819,7 +16739,7 @@
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A960" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B960" t="s">
         <v>74</v>
@@ -16833,7 +16753,7 @@
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A961" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B961" t="s">
         <v>74</v>
@@ -16847,7 +16767,7 @@
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A962" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B962" t="s">
         <v>74</v>
@@ -16861,7 +16781,7 @@
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A963" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B963" t="s">
         <v>74</v>
@@ -16875,7 +16795,7 @@
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A964" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B964" t="s">
         <v>74</v>
@@ -16889,7 +16809,7 @@
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A965" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B965" t="s">
         <v>74</v>
@@ -16903,7 +16823,7 @@
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A966" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B966" t="s">
         <v>74</v>
@@ -16917,7 +16837,7 @@
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A967" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B967" t="s">
         <v>74</v>
@@ -16931,7 +16851,7 @@
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A968" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B968" t="s">
         <v>74</v>
@@ -16945,7 +16865,7 @@
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A969" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B969" t="s">
         <v>74</v>
@@ -16959,7 +16879,7 @@
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A970" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B970" t="s">
         <v>74</v>
@@ -16973,7 +16893,7 @@
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A971" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B971" t="s">
         <v>74</v>
@@ -16987,7 +16907,7 @@
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A972" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B972" t="s">
         <v>74</v>
@@ -17001,7 +16921,7 @@
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A973" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B973" t="s">
         <v>74</v>
@@ -17015,7 +16935,7 @@
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A974" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B974" t="s">
         <v>74</v>
@@ -17029,7 +16949,7 @@
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A975" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B975" t="s">
         <v>74</v>
@@ -17043,7 +16963,7 @@
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A976" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B976" t="s">
         <v>74</v>
@@ -17057,7 +16977,7 @@
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A977" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B977" t="s">
         <v>74</v>
@@ -17071,7 +16991,7 @@
     </row>
     <row r="978" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A978" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B978" t="s">
         <v>74</v>
@@ -17085,7 +17005,7 @@
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A979" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B979" t="s">
         <v>74</v>
@@ -17099,7 +17019,7 @@
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A980" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B980" t="s">
         <v>74</v>
@@ -17113,7 +17033,7 @@
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A981" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B981" t="s">
         <v>74</v>
@@ -17127,7 +17047,7 @@
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A982" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B982" t="s">
         <v>74</v>
@@ -17141,7 +17061,7 @@
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A983" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B983" t="s">
         <v>74</v>
@@ -17155,7 +17075,7 @@
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A984" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B984" t="s">
         <v>74</v>
@@ -17169,7 +17089,7 @@
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A985" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B985" t="s">
         <v>74</v>
@@ -17183,7 +17103,7 @@
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A986" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B986" t="s">
         <v>74</v>
@@ -17197,7 +17117,7 @@
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A987" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B987" t="s">
         <v>74</v>
@@ -17211,7 +17131,7 @@
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A988" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B988" t="s">
         <v>74</v>
@@ -17225,7 +17145,7 @@
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A989" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B989" t="s">
         <v>74</v>
@@ -17239,7 +17159,7 @@
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A990" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B990" t="s">
         <v>74</v>
@@ -17253,7 +17173,7 @@
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A991" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B991" t="s">
         <v>74</v>
@@ -17267,7 +17187,7 @@
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A992" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B992" t="s">
         <v>74</v>
@@ -17281,7 +17201,7 @@
     </row>
     <row r="993" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A993" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B993" t="s">
         <v>74</v>
@@ -17295,7 +17215,7 @@
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A994" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B994" t="s">
         <v>74</v>
@@ -17309,7 +17229,7 @@
     </row>
     <row r="995" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A995" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B995" t="s">
         <v>74</v>
@@ -17323,7 +17243,7 @@
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A996" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B996" t="s">
         <v>74</v>
@@ -17337,7 +17257,7 @@
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A997" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B997" t="s">
         <v>74</v>
@@ -17351,7 +17271,7 @@
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A998" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B998" t="s">
         <v>74</v>
@@ -17365,7 +17285,7 @@
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A999" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B999" t="s">
         <v>74</v>
@@ -17379,7 +17299,7 @@
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1000" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B1000" t="s">
         <v>74</v>
@@ -17393,7 +17313,7 @@
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1001" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B1001" t="s">
         <v>74</v>
@@ -17407,7 +17327,7 @@
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1002" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B1002" t="s">
         <v>74</v>
@@ -17421,7 +17341,7 @@
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1003" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B1003" t="s">
         <v>74</v>
@@ -17435,7 +17355,7 @@
     </row>
     <row r="1004" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1004" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B1004" t="s">
         <v>74</v>
@@ -17449,7 +17369,7 @@
     </row>
     <row r="1005" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1005" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B1005" t="s">
         <v>74</v>
@@ -17463,7 +17383,7 @@
     </row>
     <row r="1006" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1006" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B1006" t="s">
         <v>74</v>
@@ -17477,7 +17397,7 @@
     </row>
     <row r="1007" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1007" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B1007" t="s">
         <v>74</v>
@@ -17491,7 +17411,7 @@
     </row>
     <row r="1008" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1008" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B1008" t="s">
         <v>74</v>
@@ -17505,7 +17425,7 @@
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1009" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B1009" t="s">
         <v>74</v>
@@ -17519,7 +17439,7 @@
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1010" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B1010" t="s">
         <v>74</v>
@@ -17533,7 +17453,7 @@
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1011" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B1011" t="s">
         <v>74</v>
@@ -17547,7 +17467,7 @@
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1012" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B1012" t="s">
         <v>74</v>
@@ -17561,7 +17481,7 @@
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1013" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B1013" t="s">
         <v>74</v>
@@ -17575,7 +17495,7 @@
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1014" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B1014" t="s">
         <v>74</v>
@@ -17589,7 +17509,7 @@
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1015" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B1015" t="s">
         <v>74</v>
@@ -17603,7 +17523,7 @@
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1016" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B1016" t="s">
         <v>74</v>
@@ -17617,7 +17537,7 @@
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1017" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B1017" t="s">
         <v>74</v>
@@ -17631,7 +17551,7 @@
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1018" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B1018" t="s">
         <v>74</v>
@@ -17645,7 +17565,7 @@
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1019" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B1019" t="s">
         <v>74</v>
@@ -17659,7 +17579,7 @@
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1020" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B1020" t="s">
         <v>74</v>
@@ -17673,7 +17593,7 @@
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1021" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B1021" t="s">
         <v>74</v>
@@ -17687,7 +17607,7 @@
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1022" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B1022" t="s">
         <v>74</v>
@@ -17701,7 +17621,7 @@
     </row>
     <row r="1023" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1023" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B1023" t="s">
         <v>74</v>
@@ -17715,7 +17635,7 @@
     </row>
     <row r="1024" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1024" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B1024" t="s">
         <v>74</v>
@@ -17729,7 +17649,7 @@
     </row>
     <row r="1025" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1025" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B1025" t="s">
         <v>74</v>
@@ -17743,7 +17663,7 @@
     </row>
     <row r="1026" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1026" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B1026" t="s">
         <v>74</v>
@@ -17757,7 +17677,7 @@
     </row>
     <row r="1027" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1027" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B1027" t="s">
         <v>74</v>
@@ -17771,7 +17691,7 @@
     </row>
     <row r="1028" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1028" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B1028" t="s">
         <v>74</v>
@@ -17785,7 +17705,7 @@
     </row>
     <row r="1029" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1029" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B1029" t="s">
         <v>74</v>
@@ -17799,7 +17719,7 @@
     </row>
     <row r="1030" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1030" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B1030" t="s">
         <v>74</v>
@@ -17813,7 +17733,7 @@
     </row>
     <row r="1031" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1031" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B1031" t="s">
         <v>74</v>
@@ -17827,7 +17747,7 @@
     </row>
     <row r="1032" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1032" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B1032" t="s">
         <v>74</v>
@@ -17841,7 +17761,7 @@
     </row>
     <row r="1033" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1033" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B1033" t="s">
         <v>74</v>
@@ -17855,7 +17775,7 @@
     </row>
     <row r="1034" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1034" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B1034" t="s">
         <v>74</v>
@@ -17869,7 +17789,7 @@
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1035" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B1035" t="s">
         <v>74</v>
@@ -17883,7 +17803,7 @@
     </row>
     <row r="1036" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1036" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B1036" t="s">
         <v>74</v>
@@ -17897,7 +17817,7 @@
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1037" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B1037" t="s">
         <v>74</v>
@@ -17911,7 +17831,7 @@
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1038" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B1038" t="s">
         <v>74</v>
@@ -17925,35 +17845,35 @@
     </row>
     <row r="1039" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1039" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="B1039" t="s">
         <v>74</v>
       </c>
       <c r="C1039" t="s">
-        <v>946</v>
+        <v>972</v>
       </c>
       <c r="D1039" t="s">
-        <v>947</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1040" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="B1040" t="s">
         <v>74</v>
       </c>
       <c r="C1040" t="s">
-        <v>946</v>
+        <v>972</v>
       </c>
       <c r="D1040" t="s">
-        <v>947</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1041" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B1041" t="s">
         <v>74</v>
@@ -17967,7 +17887,7 @@
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1042" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B1042" t="s">
         <v>74</v>
@@ -17981,7 +17901,7 @@
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1043" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B1043" t="s">
         <v>74</v>
@@ -17995,7 +17915,7 @@
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1044" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B1044" t="s">
         <v>74</v>
@@ -18009,7 +17929,7 @@
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1045" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B1045" t="s">
         <v>74</v>
@@ -18023,7 +17943,7 @@
     </row>
     <row r="1046" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1046" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B1046" t="s">
         <v>74</v>
@@ -18037,7 +17957,7 @@
     </row>
     <row r="1047" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1047" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B1047" t="s">
         <v>74</v>
@@ -18051,7 +17971,7 @@
     </row>
     <row r="1048" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1048" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B1048" t="s">
         <v>74</v>
@@ -18065,7 +17985,7 @@
     </row>
     <row r="1049" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1049" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B1049" t="s">
         <v>74</v>
@@ -18079,7 +17999,7 @@
     </row>
     <row r="1050" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1050" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B1050" t="s">
         <v>74</v>
@@ -18093,7 +18013,7 @@
     </row>
     <row r="1051" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1051" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B1051" t="s">
         <v>74</v>
@@ -18107,7 +18027,7 @@
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1052" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B1052" t="s">
         <v>74</v>
@@ -18121,7 +18041,7 @@
     </row>
     <row r="1053" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1053" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B1053" t="s">
         <v>74</v>
@@ -18135,7 +18055,7 @@
     </row>
     <row r="1054" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1054" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B1054" t="s">
         <v>74</v>
@@ -18149,7 +18069,7 @@
     </row>
     <row r="1055" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1055" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B1055" t="s">
         <v>74</v>
@@ -18163,7 +18083,7 @@
     </row>
     <row r="1056" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1056" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B1056" t="s">
         <v>74</v>
@@ -18177,7 +18097,7 @@
     </row>
     <row r="1057" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1057" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B1057" t="s">
         <v>74</v>
@@ -18191,7 +18111,7 @@
     </row>
     <row r="1058" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1058" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B1058" t="s">
         <v>74</v>
@@ -18205,7 +18125,7 @@
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1059" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B1059" t="s">
         <v>74</v>
@@ -18219,7 +18139,7 @@
     </row>
     <row r="1060" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1060" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B1060" t="s">
         <v>74</v>
@@ -18233,7 +18153,7 @@
     </row>
     <row r="1061" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1061" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B1061" t="s">
         <v>74</v>
@@ -18247,7 +18167,7 @@
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1062" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B1062" t="s">
         <v>74</v>
@@ -18256,34 +18176,6 @@
         <v>972</v>
       </c>
       <c r="D1062" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1063" t="s">
-        <v>970</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1063" t="s">
-        <v>972</v>
-      </c>
-      <c r="D1063" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1064" t="s">
-        <v>971</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1064" t="s">
-        <v>972</v>
-      </c>
-      <c r="D1064" t="s">
         <v>973</v>
       </c>
     </row>
